--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H2">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I2">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J2">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>93.66962111652748</v>
+        <v>59.76833478688167</v>
       </c>
       <c r="R2">
-        <v>374.6784844661099</v>
+        <v>358.61000872129</v>
       </c>
       <c r="S2">
-        <v>0.08322813059857376</v>
+        <v>0.1406859960847201</v>
       </c>
       <c r="T2">
-        <v>0.05175582637429107</v>
+        <v>0.1247269617824124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H3">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I3">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J3">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>47.900673480915</v>
+        <v>32.39537691074</v>
       </c>
       <c r="R3">
-        <v>287.40404088549</v>
+        <v>291.5583921966601</v>
       </c>
       <c r="S3">
-        <v>0.04256111491333665</v>
+        <v>0.07625402122174775</v>
       </c>
       <c r="T3">
-        <v>0.03970026103990104</v>
+        <v>0.101405960671659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H4">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I4">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J4">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>40.342180967465</v>
+        <v>27.45523425927</v>
       </c>
       <c r="R4">
-        <v>242.05308580479</v>
+        <v>247.09710833343</v>
       </c>
       <c r="S4">
-        <v>0.03584517868407437</v>
+        <v>0.06462564154209148</v>
       </c>
       <c r="T4">
-        <v>0.03343575359050868</v>
+        <v>0.08594202849369229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H5">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I5">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J5">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>62.67533869940624</v>
+        <v>34.79892710244833</v>
       </c>
       <c r="R5">
-        <v>250.701354797625</v>
+        <v>208.79356261469</v>
       </c>
       <c r="S5">
-        <v>0.05568882645628243</v>
+        <v>0.08191162995496487</v>
       </c>
       <c r="T5">
-        <v>0.03463037331645619</v>
+        <v>0.07261979886594867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H6">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I6">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J6">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>63.37882274789501</v>
+        <v>22.94367283284889</v>
       </c>
       <c r="R6">
-        <v>380.27293648737</v>
+        <v>206.49305549564</v>
       </c>
       <c r="S6">
-        <v>0.05631389210257984</v>
+        <v>0.05400607993916783</v>
       </c>
       <c r="T6">
-        <v>0.0525286102395942</v>
+        <v>0.07181966708897722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H7">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I7">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J7">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>42.7154853397975</v>
+        <v>23.01687985585666</v>
       </c>
       <c r="R7">
-        <v>256.2929120387849</v>
+        <v>207.15191870271</v>
       </c>
       <c r="S7">
-        <v>0.0379539273252686</v>
+        <v>0.05417839865925549</v>
       </c>
       <c r="T7">
-        <v>0.03540275731429304</v>
+        <v>0.07204882412321917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H8">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I8">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J8">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N8">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O8">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P8">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q8">
-        <v>63.34906089295667</v>
+        <v>8.515896912165667</v>
       </c>
       <c r="R8">
-        <v>380.09436535774</v>
+        <v>51.095381472994</v>
       </c>
       <c r="S8">
-        <v>0.05628744784541153</v>
+        <v>0.02004518686884645</v>
       </c>
       <c r="T8">
-        <v>0.05250394350060661</v>
+        <v>0.01777131573924629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H9">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I9">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J9">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P9">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q9">
-        <v>32.39537691074</v>
+        <v>4.615749981764</v>
       </c>
       <c r="R9">
-        <v>291.55839219666</v>
+        <v>41.541749835876</v>
       </c>
       <c r="S9">
-        <v>0.02878421657073789</v>
+        <v>0.0108648063590526</v>
       </c>
       <c r="T9">
-        <v>0.04027411807752919</v>
+        <v>0.01444849869815203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H10">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I10">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J10">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N10">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O10">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P10">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q10">
-        <v>27.28354452809556</v>
+        <v>3.911869813421999</v>
       </c>
       <c r="R10">
-        <v>245.55190075286</v>
+        <v>35.206828320798</v>
       </c>
       <c r="S10">
-        <v>0.02424220766678939</v>
+        <v>0.009207974477077371</v>
       </c>
       <c r="T10">
-        <v>0.03391905878809995</v>
+        <v>0.01224517058546734</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H11">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I11">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J11">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N11">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O11">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P11">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q11">
-        <v>42.387529707375</v>
+        <v>4.958212018372333</v>
       </c>
       <c r="R11">
-        <v>254.32517824425</v>
+        <v>29.749272110234</v>
       </c>
       <c r="S11">
-        <v>0.03766252938983933</v>
+        <v>0.01167091235001322</v>
       </c>
       <c r="T11">
-        <v>0.03513094643418369</v>
+        <v>0.01034699599929894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H12">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I12">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J12">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N12">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O12">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P12">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q12">
-        <v>42.8632981933978</v>
+        <v>3.269054647878222</v>
       </c>
       <c r="R12">
-        <v>385.7696837405801</v>
+        <v>29.421491830904</v>
       </c>
       <c r="S12">
-        <v>0.03808526326254424</v>
+        <v>0.007694880759720873</v>
       </c>
       <c r="T12">
-        <v>0.05328789775744001</v>
+        <v>0.0102329918237914</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H13">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I13">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J13">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N13">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O13">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P13">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q13">
-        <v>28.88861777818778</v>
+        <v>3.279485312600666</v>
       </c>
       <c r="R13">
-        <v>259.99756000369</v>
+        <v>29.515367813406</v>
       </c>
       <c r="S13">
-        <v>0.02566836103953301</v>
+        <v>0.007719433032450829</v>
       </c>
       <c r="T13">
-        <v>0.03591449504356968</v>
+        <v>0.01026564251896738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H14">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I14">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J14">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N14">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O14">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P14">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q14">
-        <v>32.153925379884</v>
+        <v>40.92496284209324</v>
       </c>
       <c r="R14">
-        <v>192.923552279304</v>
+        <v>163.699851368373</v>
       </c>
       <c r="S14">
-        <v>0.02856967999736678</v>
+        <v>0.0963314300574048</v>
       </c>
       <c r="T14">
-        <v>0.02664929610118104</v>
+        <v>0.05693590421029844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H15">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I15">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J15">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P15">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q15">
-        <v>16.442840938104</v>
+        <v>22.181973131007</v>
       </c>
       <c r="R15">
-        <v>147.985568442936</v>
+        <v>133.091838786042</v>
       </c>
       <c r="S15">
-        <v>0.01460993326006556</v>
+        <v>0.0522131492568397</v>
       </c>
       <c r="T15">
-        <v>0.0204418340090893</v>
+        <v>0.0462902325258836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H16">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I16">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J16">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N16">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O16">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P16">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q16">
-        <v>13.848240881384</v>
+        <v>18.79932653114849</v>
       </c>
       <c r="R16">
-        <v>124.634167932456</v>
+        <v>112.795959186891</v>
       </c>
       <c r="S16">
-        <v>0.01230455709009986</v>
+        <v>0.04425088950841959</v>
       </c>
       <c r="T16">
-        <v>0.01721621236140098</v>
+        <v>0.03923118972858348</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H17">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I17">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J17">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N17">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O17">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P17">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q17">
-        <v>21.51453309705</v>
+        <v>23.82774764748825</v>
       </c>
       <c r="R17">
-        <v>129.0871985823</v>
+        <v>95.31099058995299</v>
       </c>
       <c r="S17">
-        <v>0.01911627643012501</v>
+        <v>0.05608706389755397</v>
       </c>
       <c r="T17">
-        <v>0.01783132716171071</v>
+        <v>0.03314980059576675</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H18">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I18">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J18">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N18">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O18">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P18">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q18">
-        <v>21.75601772495201</v>
+        <v>15.710140854578</v>
       </c>
       <c r="R18">
-        <v>195.804159524568</v>
+        <v>94.260845127468</v>
       </c>
       <c r="S18">
-        <v>0.01933084241116569</v>
+        <v>0.03697939423339379</v>
       </c>
       <c r="T18">
-        <v>0.0270472058147608</v>
+        <v>0.0327845529736148</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H19">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I19">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J19">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N19">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O19">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P19">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q19">
-        <v>14.662923921436</v>
+        <v>15.7602676434045</v>
       </c>
       <c r="R19">
-        <v>131.966315292924</v>
+        <v>94.56160586042698</v>
       </c>
       <c r="S19">
-        <v>0.01302842621272116</v>
+        <v>0.03709738542792398</v>
       </c>
       <c r="T19">
-        <v>0.01822903098182386</v>
+        <v>0.03288915957000955</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H20">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I20">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J20">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N20">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O20">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P20">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q20">
-        <v>51.11362704119099</v>
+        <v>7.8959699317975</v>
       </c>
       <c r="R20">
-        <v>204.454508164764</v>
+        <v>47.375819590785</v>
       </c>
       <c r="S20">
-        <v>0.04541591581179594</v>
+        <v>0.01858596862152746</v>
       </c>
       <c r="T20">
-        <v>0.02824211281065361</v>
+        <v>0.01647762721564971</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H21">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I21">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J21">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P21">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q21">
-        <v>26.138433465846</v>
+        <v>4.27973981421</v>
       </c>
       <c r="R21">
-        <v>156.830600795076</v>
+        <v>38.51765832789</v>
       </c>
       <c r="S21">
-        <v>0.02322474381989055</v>
+        <v>0.01007388713258448</v>
       </c>
       <c r="T21">
-        <v>0.02166363343892486</v>
+        <v>0.01339669942660343</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H22">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I22">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J22">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N22">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O22">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P22">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q22">
-        <v>22.013916224066</v>
+        <v>3.627099616454999</v>
       </c>
       <c r="R22">
-        <v>132.083497344396</v>
+        <v>32.64389654809499</v>
       </c>
       <c r="S22">
-        <v>0.01955999258503832</v>
+        <v>0.008537666713637097</v>
       </c>
       <c r="T22">
-        <v>0.01824521780375683</v>
+        <v>0.01135376575712832</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H23">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I23">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J23">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N23">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O23">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P23">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q23">
-        <v>34.2006709195125</v>
+        <v>4.5972718336475</v>
       </c>
       <c r="R23">
-        <v>136.80268367805</v>
+        <v>27.583631001885</v>
       </c>
       <c r="S23">
-        <v>0.03038827179952997</v>
+        <v>0.01082131147697432</v>
       </c>
       <c r="T23">
-        <v>0.01889709774519664</v>
+        <v>0.009593771523722747</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H24">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I24">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J24">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N24">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O24">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P24">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q24">
-        <v>34.58454800639801</v>
+        <v>3.031079106673333</v>
       </c>
       <c r="R24">
-        <v>207.507288038388</v>
+        <v>27.27971196006</v>
       </c>
       <c r="S24">
-        <v>0.03072935754259454</v>
+        <v>0.007134720832602434</v>
       </c>
       <c r="T24">
-        <v>0.0286638054128412</v>
+        <v>0.009488066446360794</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H25">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I25">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J25">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N25">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O25">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P25">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q25">
-        <v>23.308980654739</v>
+        <v>3.040750456135</v>
       </c>
       <c r="R25">
-        <v>139.853883928434</v>
+        <v>27.366754105215</v>
       </c>
       <c r="S25">
-        <v>0.02071069427769844</v>
+        <v>0.007157485787278679</v>
       </c>
       <c r="T25">
-        <v>0.01931857214775564</v>
+        <v>0.009518340287157702</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H26">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I26">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J26">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N26">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O26">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P26">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q26">
-        <v>47.815442259101</v>
+        <v>9.6134693398115</v>
       </c>
       <c r="R26">
-        <v>286.892653554606</v>
+        <v>57.680816038869</v>
       </c>
       <c r="S26">
-        <v>0.0424853845412517</v>
+        <v>0.0226287132596866</v>
       </c>
       <c r="T26">
-        <v>0.03962962107789479</v>
+        <v>0.02006177396808184</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H27">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I27">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J27">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>24.489942</v>
       </c>
       <c r="N27">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O27">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P27">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q27">
-        <v>24.451811160306</v>
+        <v>5.210651489514001</v>
       </c>
       <c r="R27">
-        <v>220.066300442754</v>
+        <v>46.89586340562601</v>
       </c>
       <c r="S27">
-        <v>0.02172613178492437</v>
+        <v>0.01226511827151499</v>
       </c>
       <c r="T27">
-        <v>0.03039863165021946</v>
+        <v>0.01631069524133863</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H28">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I28">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J28">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N28">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O28">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P28">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q28">
-        <v>20.59343468739267</v>
+        <v>4.416051638547</v>
       </c>
       <c r="R28">
-        <v>185.340912186534</v>
+        <v>39.74446474692299</v>
       </c>
       <c r="S28">
-        <v>0.01829785421575809</v>
+        <v>0.01039474540734413</v>
       </c>
       <c r="T28">
-        <v>0.02560187592529517</v>
+        <v>0.01382339091211651</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H29">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I29">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J29">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N29">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O29">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P29">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q29">
-        <v>31.9938204396375</v>
+        <v>5.5972517881015</v>
       </c>
       <c r="R29">
-        <v>191.962922637825</v>
+        <v>33.583510728609</v>
       </c>
       <c r="S29">
-        <v>0.02842742219043346</v>
+        <v>0.01317511933290261</v>
       </c>
       <c r="T29">
-        <v>0.02651660051551049</v>
+        <v>0.01168056985944847</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H30">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I30">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J30">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N30">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O30">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P30">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q30">
-        <v>32.35292727171134</v>
+        <v>3.690387160822667</v>
       </c>
       <c r="R30">
-        <v>291.176345445402</v>
+        <v>33.213484447404</v>
       </c>
       <c r="S30">
-        <v>0.02874649885544421</v>
+        <v>0.008686636418931202</v>
       </c>
       <c r="T30">
-        <v>0.04022134444321403</v>
+        <v>0.01155187224166889</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H31">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I31">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J31">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N31">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O31">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P31">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q31">
-        <v>21.80493310946233</v>
+        <v>3.702162183059</v>
       </c>
       <c r="R31">
-        <v>196.244397985161</v>
+        <v>33.319459647531</v>
       </c>
       <c r="S31">
-        <v>0.01937430512577666</v>
+        <v>0.008714353114371107</v>
       </c>
       <c r="T31">
-        <v>0.02710801770088285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.261338</v>
-      </c>
-      <c r="H32">
-        <v>0.784014</v>
-      </c>
-      <c r="I32">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J32">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>47.890007</v>
-      </c>
-      <c r="N32">
-        <v>95.78001399999999</v>
-      </c>
-      <c r="O32">
-        <v>0.2671069186198896</v>
-      </c>
-      <c r="P32">
-        <v>0.2091536763465643</v>
-      </c>
-      <c r="Q32">
-        <v>12.515478649366</v>
-      </c>
-      <c r="R32">
-        <v>75.09287189619599</v>
-      </c>
-      <c r="S32">
-        <v>0.01112035982548992</v>
-      </c>
-      <c r="T32">
-        <v>0.01037287648193724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.261338</v>
-      </c>
-      <c r="H33">
-        <v>0.784014</v>
-      </c>
-      <c r="I33">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J33">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>24.489942</v>
-      </c>
-      <c r="N33">
-        <v>73.469826</v>
-      </c>
-      <c r="O33">
-        <v>0.136592858397365</v>
-      </c>
-      <c r="P33">
-        <v>0.1604351844054063</v>
-      </c>
-      <c r="Q33">
-        <v>6.400152462396</v>
-      </c>
-      <c r="R33">
-        <v>57.601372161564</v>
-      </c>
-      <c r="S33">
-        <v>0.00568671804840994</v>
-      </c>
-      <c r="T33">
-        <v>0.007956706189742483</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.261338</v>
-      </c>
-      <c r="H34">
-        <v>0.784014</v>
-      </c>
-      <c r="I34">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J34">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>20.62554866666667</v>
-      </c>
-      <c r="N34">
-        <v>61.876646</v>
-      </c>
-      <c r="O34">
-        <v>0.1150391719340928</v>
-      </c>
-      <c r="P34">
-        <v>0.1351192952518772</v>
-      </c>
-      <c r="Q34">
-        <v>5.390239637449334</v>
-      </c>
-      <c r="R34">
-        <v>48.512156737044</v>
-      </c>
-      <c r="S34">
-        <v>0.004789381692332751</v>
-      </c>
-      <c r="T34">
-        <v>0.006701176782815633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.261338</v>
-      </c>
-      <c r="H35">
-        <v>0.784014</v>
-      </c>
-      <c r="I35">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J35">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>32.0437125</v>
-      </c>
-      <c r="N35">
-        <v>64.087425</v>
-      </c>
-      <c r="O35">
-        <v>0.1787240771757799</v>
-      </c>
-      <c r="P35">
-        <v>0.1399469470356803</v>
-      </c>
-      <c r="Q35">
-        <v>8.374239737325</v>
-      </c>
-      <c r="R35">
-        <v>50.24543842395</v>
-      </c>
-      <c r="S35">
-        <v>0.007440750909569699</v>
-      </c>
-      <c r="T35">
-        <v>0.006940601862622582</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.261338</v>
-      </c>
-      <c r="H36">
-        <v>0.784014</v>
-      </c>
-      <c r="I36">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J36">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>32.40337933333334</v>
-      </c>
-      <c r="N36">
-        <v>97.21013800000001</v>
-      </c>
-      <c r="O36">
-        <v>0.1807301219771816</v>
-      </c>
-      <c r="P36">
-        <v>0.2122766211002732</v>
-      </c>
-      <c r="Q36">
-        <v>8.468234348214668</v>
-      </c>
-      <c r="R36">
-        <v>76.21410913393201</v>
-      </c>
-      <c r="S36">
-        <v>0.007524267802853121</v>
-      </c>
-      <c r="T36">
-        <v>0.01052775743242295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.261338</v>
-      </c>
-      <c r="H37">
-        <v>0.784014</v>
-      </c>
-      <c r="I37">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J37">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>21.83893633333333</v>
-      </c>
-      <c r="N37">
-        <v>65.51680899999999</v>
-      </c>
-      <c r="O37">
-        <v>0.1218068518956913</v>
-      </c>
-      <c r="P37">
-        <v>0.1430682758601985</v>
-      </c>
-      <c r="Q37">
-        <v>5.707343943480667</v>
-      </c>
-      <c r="R37">
-        <v>51.36609549132599</v>
-      </c>
-      <c r="S37">
-        <v>0.005071137914693398</v>
-      </c>
-      <c r="T37">
-        <v>0.007095402671873429</v>
+        <v>0.01158873112573422</v>
       </c>
     </row>
   </sheetData>
